--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliahan\Informatika\MODUL SEMESTER 4 IF ITB\Tugas\OOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adwisatya\Documents\NetBeansProjects\onlineprinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Nomor</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Update Diagram Kelas &amp; Upload Tugas</t>
+  </si>
+  <si>
+    <t>Sedang</t>
+  </si>
+  <si>
+    <t>Realisasi interface file</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +514,9 @@
       <c r="D3" s="5">
         <v>41771.999305555553</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -523,7 +531,9 @@
       <c r="D4" s="5">
         <v>41774.999305555553</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -538,7 +548,9 @@
       <c r="D5" s="5">
         <v>41772.999305555553</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -571,7 +583,7 @@
         <v>41768.415972222225</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -588,17 +600,25 @@
         <v>41771.708333333336</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5">
+        <v>41775.999305555553</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
